--- a/target/classes/examples/石化有组织废气排放.xlsx
+++ b/target/classes/examples/石化有组织废气排放.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22215"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_B8CEBB16602EB3A4D5C5E46EC55816F1A01ED500" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B4D7F6D4-A566-4190-9AC9-1C94EB3C0D6C}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="23235" windowHeight="12555"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -216,7 +215,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -285,7 +284,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -343,7 +342,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -376,26 +375,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -428,23 +410,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -620,33 +585,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Y4"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.89453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.1015625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.47265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.62890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.1015625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.1015625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7.734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.1015625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -723,7 +688,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -767,7 +732,7 @@
         <v>40</v>
       </c>
       <c r="O2" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>40</v>
@@ -800,7 +765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -844,7 +809,7 @@
         <v>40</v>
       </c>
       <c r="O3" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>40</v>
@@ -877,7 +842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -921,7 +886,7 @@
         <v>40</v>
       </c>
       <c r="O4" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>40</v>
@@ -954,7 +919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -998,7 +963,7 @@
         <v>40</v>
       </c>
       <c r="O5" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>40</v>
@@ -1031,7 +996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -1075,7 +1040,7 @@
         <v>40</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>40</v>
@@ -1108,7 +1073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -1146,13 +1111,13 @@
         <v>1.145</v>
       </c>
       <c r="M7" s="1">
-        <v>100</v>
+        <v>1899432.66666667</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>40</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>40</v>
@@ -1185,7 +1150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -1222,17 +1187,17 @@
       <c r="L8" s="1">
         <v>1800</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N8" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P8" s="1">
-        <v>0</v>
+      <c r="M8" s="1">
+        <v>1626119.16666667</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="Q8" s="1">
         <v>0</v>
@@ -1258,8 +1223,11 @@
       <c r="X8" s="1">
         <v>0</v>
       </c>
+      <c r="Y8" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -1296,17 +1264,17 @@
       <c r="L9" s="1">
         <v>2600</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P9" s="1">
-        <v>0</v>
+      <c r="M9" s="1">
+        <v>1352805.66666667</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="Q9" s="1">
         <v>0</v>
@@ -1331,6 +1299,86 @@
       </c>
       <c r="X9" s="1">
         <v>0</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1">
+        <v>6</v>
+      </c>
+      <c r="H10" s="1">
+        <v>7</v>
+      </c>
+      <c r="I10" s="1">
+        <v>8</v>
+      </c>
+      <c r="J10" s="1">
+        <v>9</v>
+      </c>
+      <c r="K10" s="1">
+        <v>10</v>
+      </c>
+      <c r="L10" s="1">
+        <v>11</v>
+      </c>
+      <c r="M10" s="1">
+        <v>12</v>
+      </c>
+      <c r="N10" s="1">
+        <v>13</v>
+      </c>
+      <c r="O10" s="1">
+        <v>14</v>
+      </c>
+      <c r="P10" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>16</v>
+      </c>
+      <c r="R10" s="1">
+        <v>17</v>
+      </c>
+      <c r="S10" s="1">
+        <v>18</v>
+      </c>
+      <c r="T10" s="1">
+        <v>19</v>
+      </c>
+      <c r="U10" s="1">
+        <v>20</v>
+      </c>
+      <c r="V10" s="1">
+        <v>21</v>
+      </c>
+      <c r="W10" s="1">
+        <v>22</v>
+      </c>
+      <c r="X10" s="1">
+        <v>23</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1340,12 +1388,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1353,12 +1401,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/target/classes/examples/石化有组织废气排放.xlsx
+++ b/target/classes/examples/石化有组织废气排放.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22607"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{79A3EAB6-059E-4AD2-A282-29A2D22D76DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="23235" windowHeight="12555"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="石化有组织废弃排放" sheetId="1" r:id="rId1"/>
+    <sheet name="说明" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -284,7 +284,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -342,7 +342,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -375,9 +375,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -410,6 +427,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -585,33 +619,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.3671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3671875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.47265625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.62890625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1015625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.734375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -688,7 +722,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -696,7 +730,7 @@
         <v>2015</v>
       </c>
       <c r="C2" s="1">
-        <v>650109</v>
+        <v>210101</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -765,7 +799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -773,7 +807,7 @@
         <v>2015</v>
       </c>
       <c r="C3" s="1">
-        <v>652323</v>
+        <v>210101</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>18</v>
@@ -842,7 +876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -850,7 +884,7 @@
         <v>2015</v>
       </c>
       <c r="C4" s="1">
-        <v>650109</v>
+        <v>210102</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
@@ -919,7 +953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -927,7 +961,7 @@
         <v>2015</v>
       </c>
       <c r="C5" s="1">
-        <v>650109</v>
+        <v>210102</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -996,7 +1030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -1004,7 +1038,7 @@
         <v>2015</v>
       </c>
       <c r="C6" s="1">
-        <v>650109</v>
+        <v>210102</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -1073,7 +1107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -1081,7 +1115,7 @@
         <v>2015</v>
       </c>
       <c r="C7" s="1">
-        <v>650109</v>
+        <v>210103</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>28</v>
@@ -1150,7 +1184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -1158,7 +1192,7 @@
         <v>2015</v>
       </c>
       <c r="C8" s="1">
-        <v>650106</v>
+        <v>210103</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>32</v>
@@ -1227,7 +1261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -1235,7 +1269,7 @@
         <v>2015</v>
       </c>
       <c r="C9" s="1">
-        <v>650106</v>
+        <v>210103</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>32</v>
@@ -1302,111 +1336,22 @@
       </c>
       <c r="Y9" s="1">
         <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1">
-        <v>4</v>
-      </c>
-      <c r="F10" s="1">
-        <v>5</v>
-      </c>
-      <c r="G10" s="1">
-        <v>6</v>
-      </c>
-      <c r="H10" s="1">
-        <v>7</v>
-      </c>
-      <c r="I10" s="1">
-        <v>8</v>
-      </c>
-      <c r="J10" s="1">
-        <v>9</v>
-      </c>
-      <c r="K10" s="1">
-        <v>10</v>
-      </c>
-      <c r="L10" s="1">
-        <v>11</v>
-      </c>
-      <c r="M10" s="1">
-        <v>12</v>
-      </c>
-      <c r="N10" s="1">
-        <v>13</v>
-      </c>
-      <c r="O10" s="1">
-        <v>14</v>
-      </c>
-      <c r="P10" s="1">
-        <v>15</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>16</v>
-      </c>
-      <c r="R10" s="1">
-        <v>17</v>
-      </c>
-      <c r="S10" s="1">
-        <v>18</v>
-      </c>
-      <c r="T10" s="1">
-        <v>19</v>
-      </c>
-      <c r="U10" s="1">
-        <v>20</v>
-      </c>
-      <c r="V10" s="1">
-        <v>21</v>
-      </c>
-      <c r="W10" s="1">
-        <v>22</v>
-      </c>
-      <c r="X10" s="1">
-        <v>23</v>
-      </c>
-      <c r="Y10" s="1">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
